--- a/Libro3.xlsx
+++ b/Libro3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisco/Sites/Lapices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73685DC8-73B9-FB4F-84F0-65AE5030C043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB0EA4-22EC-3B49-9816-DC8ADDCA8261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="27660" windowHeight="17040" xr2:uid="{C4E30C3F-6F0C-044D-B9E3-C4F5C71C6ACC}"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="27660" windowHeight="17040" activeTab="1" xr2:uid="{C4E30C3F-6F0C-044D-B9E3-C4F5C71C6ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="annotations" localSheetId="0">Hoja1!$E$2:$I$57</definedName>
@@ -67,176 +68,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
   <si>
     <t>path</t>
   </si>
   <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/1.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/10.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/11.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/12.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/13.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/14.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/15.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/16.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/17.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/18.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/19.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/2.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/20.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/21.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/22.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/23.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/24.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/25.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/26.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/27.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/28.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/29.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/3.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/30.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/31.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/32.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/33.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/34.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/35.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/36.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/37.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/38.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/39.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/4.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/40.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/41.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/42.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/43.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/44.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/45.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/46.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/47.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/48.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/49.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/5.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/50.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/51.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/52.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/53.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/54.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/55.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/6.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/7.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/8.jpg</t>
-  </si>
-  <si>
-    <t>/Users/francisco/Sites/Lapices/imagenes/9.jpg</t>
-  </si>
-  <si>
     <t>2211</t>
   </si>
   <si>
@@ -604,6 +440,336 @@
   </si>
   <si>
     <t>1430</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/1.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/10.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/11.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/12.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/13.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/14.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/15.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/16.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/17.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/18.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/19.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/2.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/20.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/21.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/22.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/23.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/24.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/25.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/26.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/27.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/28.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/29.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/3.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/30.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/31.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/32.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/33.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/34.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/35.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/36.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/37.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/38.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/39.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/4.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/40.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/41.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/42.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/43.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/44.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/45.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/46.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/47.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/48.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/49.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/5.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/50.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/51.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/52.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/53.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/54.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/55.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/6.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/7.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/8.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/9.jpg</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/1.jpg 2211,1914,164,1743,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/10.jpg 1290,2288,741,2206,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/11.jpg 1200,1898,603,2594,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/12.jpg 1464,2173,885,1835,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/13.jpg 1687,1832,1543,2868,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/14.jpg 1347,2323,446,2034,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/15.jpg 1415,2319,242,2207,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/16.jpg 881,1907,1129,2249,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/17.jpg 2324,2055,456,2962,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/18.jpg 1467,2162,235,2048,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/19.jpg 1349,2217,446,2560,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/2.jpg 945,3088,1385,1097,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/20.jpg 1912,2190,429,2160,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/21.jpg 2210,2653,310,1866,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/22.jpg 2905,1490,238,639,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/23.jpg 1792,1831,636,1901,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/24.jpg 1128,2070,647,2833,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/25.jpg 2675,1702,698,2211,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/26.jpg 1670,2013,2079,476,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/27.jpg 2760,1217,1987,816,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/28.jpg 1678,2378,1289,958,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/29.jpg 1508,2114,1452,318,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/3.jpg 1499,2053,983,579,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/30.jpg 1548,1889,1421,377,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/31.jpg 1513,1493,1155,193,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/32.jpg 1688,3157,2046,405,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/33.jpg 1583,2233,324,2004,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/34.jpg 1961,2128,312,2109,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/35.jpg 1744,1949,131,701,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/36.jpg 1477,2179,535,1841,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/37.jpg 1432,2227,569,1988,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/38.jpg 1135,1692,431,1699,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/39.jpg 1589,2795,2127,692,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/4.jpg 1283,2460,1784,365,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/40.jpg 1540,2261,2085,730,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/41.jpg 1702,2193,646,2686,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/42.jpg 1501,2342,466,2513,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/43.jpg 1506,2151,502,2798,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/44.jpg 1118,2172,597,3090,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/45.jpg 1544,2122,827,1875,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/46.jpg 1502,2329,2059,527,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/47.jpg 1877,2094,2294,1205,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/48.jpg 1580,2040,439,1945,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/49.jpg 1743,2022,440,2019,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/5.jpg 951,2781,820,863,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/50.jpg 1414,3147,1843,636,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/51.jpg 1628,1988,262,664,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/52.jpg 2344,2432,838,374,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/53.jpg 1723,2326,358,2036,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/54.jpg 2131,2075,387,1957,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/55.jpg 1406,1870,1430,392,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/6.jpg 1265,2237,409,2529,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/7.jpg 1536,1661,373,767,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/8.jpg 1219,2115,757,1951,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/9.jpg 1614,2158,802,2443,0</t>
   </si>
 </sst>
 </file>
@@ -619,12 +785,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -639,8 +811,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,32 +1132,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C389E77A-09A3-8747-A3EE-018661B34CF4}">
-  <dimension ref="E2:I57"/>
+  <dimension ref="C2:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D57" sqref="C3:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="53.6640625" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
     <col min="6" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>E3&amp;" "&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;"0"</f>
+        <v>Lapices/imagenes/1.jpg 2211,1914,164,1743,0</v>
+      </c>
       <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>164</v>
@@ -993,15 +1174,22 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D57" si="0">E4&amp;" "&amp;F4&amp;","&amp;G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;"0"</f>
+        <v>Lapices/imagenes/10.jpg 1290,2288,741,2206,0</v>
+      </c>
       <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>741</v>
@@ -1010,15 +1198,22 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/11.jpg 1200,1898,603,2594,0</v>
+      </c>
       <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>603</v>
@@ -1027,15 +1222,22 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/12.jpg 1464,2173,885,1835,0</v>
+      </c>
       <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>885</v>
@@ -1044,32 +1246,46 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/13.jpg 1687,1832,1543,2868,0</v>
+      </c>
       <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="I7">
         <v>2868</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/14.jpg 1347,2323,446,2034,0</v>
+      </c>
       <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>446</v>
@@ -1078,15 +1294,22 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/15.jpg 1415,2319,242,2207,0</v>
+      </c>
       <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="H9">
         <v>242</v>
@@ -1095,32 +1318,46 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/16.jpg 881,1907,1129,2249,0</v>
+      </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="F10">
         <v>881</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="I10">
         <v>2249</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/17.jpg 2324,2055,456,2962,0</v>
+      </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>456</v>
@@ -1129,15 +1366,22 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/18.jpg 1467,2162,235,2048,0</v>
+      </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>235</v>
@@ -1146,15 +1390,22 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/19.jpg 1349,2217,446,2560,0</v>
+      </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <v>446</v>
@@ -1163,32 +1414,46 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/2.jpg 945,3088,1385,1097,0</v>
+      </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="F14">
         <v>945</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="I14">
         <v>1097</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/20.jpg 1912,2190,429,2160,0</v>
+      </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>429</v>
@@ -1197,15 +1462,22 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/21.jpg 2210,2653,310,1866,0</v>
+      </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="H16">
         <v>310</v>
@@ -1214,15 +1486,22 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/22.jpg 2905,1490,238,639,0</v>
+      </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="H17">
         <v>238</v>
@@ -1231,15 +1510,22 @@
         <v>639</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/23.jpg 1792,1831,636,1901,0</v>
+      </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>636</v>
@@ -1248,15 +1534,22 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/24.jpg 1128,2070,647,2833,0</v>
+      </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="H19">
         <v>647</v>
@@ -1265,15 +1558,22 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/25.jpg 2675,1702,698,2211,0</v>
+      </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>698</v>
@@ -1282,83 +1582,118 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/26.jpg 1670,2013,2079,476,0</v>
+      </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="I21">
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/27.jpg 2760,1217,1987,816,0</v>
+      </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="I22">
         <v>816</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/28.jpg 1678,2378,1289,958,0</v>
+      </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="I23">
         <v>958</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>29</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/29.jpg 1508,2114,1452,318,0</v>
+      </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="I24">
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/3.jpg 1499,2053,983,579,0</v>
+      </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="H25">
         <v>983</v>
@@ -1367,66 +1702,94 @@
         <v>579</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/30.jpg 1548,1889,1421,377,0</v>
+      </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="I26">
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/31.jpg 1513,1493,1155,193,0</v>
+      </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="I27">
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/32.jpg 1688,3157,2046,405,0</v>
+      </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="I28">
         <v>405</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>33</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/33.jpg 1583,2233,324,2004,0</v>
+      </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="H29">
         <v>324</v>
@@ -1435,15 +1798,22 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/34.jpg 1961,2128,312,2109,0</v>
+      </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="H30">
         <v>312</v>
@@ -1452,15 +1822,22 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/35.jpg 1744,1949,131,701,0</v>
+      </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="H31">
         <v>131</v>
@@ -1469,15 +1846,22 @@
         <v>701</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>36</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/36.jpg 1477,2179,535,1841,0</v>
+      </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="H32">
         <v>535</v>
@@ -1486,15 +1870,22 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/37.jpg 1432,2227,569,1988,0</v>
+      </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="H33">
         <v>569</v>
@@ -1503,15 +1894,22 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/38.jpg 1135,1692,431,1699,0</v>
+      </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="H34">
         <v>431</v>
@@ -1520,66 +1918,94 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>39</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/39.jpg 1589,2795,2127,692,0</v>
+      </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="I35">
         <v>692</v>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/4.jpg 1283,2460,1784,365,0</v>
+      </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="I36">
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/40.jpg 1540,2261,2085,730,0</v>
+      </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="I37">
         <v>730</v>
       </c>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>41</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/41.jpg 1702,2193,646,2686,0</v>
+      </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="H38">
         <v>646</v>
@@ -1588,15 +2014,22 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>42</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/42.jpg 1501,2342,466,2513,0</v>
+      </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="H39">
         <v>466</v>
@@ -1605,15 +2038,22 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>43</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/43.jpg 1506,2151,502,2798,0</v>
+      </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="H40">
         <v>502</v>
@@ -1622,15 +2062,22 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>44</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/44.jpg 1118,2172,597,3090,0</v>
+      </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="H41">
         <v>597</v>
@@ -1639,15 +2086,22 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>45</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/45.jpg 1544,2122,827,1875,0</v>
+      </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="H42">
         <v>827</v>
@@ -1656,49 +2110,70 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>46</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/46.jpg 1502,2329,2059,527,0</v>
+      </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="I43">
         <v>527</v>
       </c>
     </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>47</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/47.jpg 1877,2094,2294,1205,0</v>
+      </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="I44">
         <v>1205</v>
       </c>
     </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>48</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/48.jpg 1580,2040,439,1945,0</v>
+      </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="H45">
         <v>439</v>
@@ -1707,15 +2182,22 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>49</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/49.jpg 1743,2022,440,2019,0</v>
+      </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="H46">
         <v>440</v>
@@ -1724,15 +2206,22 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/5.jpg 951,2781,820,863,0</v>
+      </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="F47">
         <v>951</v>
       </c>
       <c r="G47" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="H47">
         <v>820</v>
@@ -1741,32 +2230,46 @@
         <v>863</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/50.jpg 1414,3147,1843,636,0</v>
+      </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="H48" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="I48">
         <v>636</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>51</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/51.jpg 1628,1988,262,664,0</v>
+      </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="H49">
         <v>262</v>
@@ -1775,15 +2278,22 @@
         <v>664</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>52</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/52.jpg 2344,2432,838,374,0</v>
+      </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="H50">
         <v>838</v>
@@ -1792,15 +2302,22 @@
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>53</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/53.jpg 1723,2326,358,2036,0</v>
+      </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="H51">
         <v>358</v>
@@ -1809,15 +2326,22 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/54.jpg 2131,2075,387,1957,0</v>
+      </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="H52">
         <v>387</v>
@@ -1826,32 +2350,46 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>55</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/55.jpg 1406,1870,1430,392,0</v>
+      </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="I53">
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>6</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/6.jpg 1265,2237,409,2529,0</v>
+      </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="H54">
         <v>409</v>
@@ -1860,15 +2398,22 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>7</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/7.jpg 1536,1661,373,767,0</v>
+      </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="H55">
         <v>373</v>
@@ -1877,15 +2422,22 @@
         <v>767</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>8</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/8.jpg 1219,2115,757,1951,0</v>
+      </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H56">
         <v>757</v>
@@ -1894,21 +2446,486 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>9</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>Lapices/imagenes/9.jpg 1614,2158,802,2443,0</v>
+      </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="H57">
         <v>802</v>
       </c>
       <c r="I57">
         <v>2443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5577479-BCB7-F647-952D-D16D027315C4}">
+  <dimension ref="C3:D57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:D57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Libro3.xlsx
+++ b/Libro3.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisco/Sites/Lapices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB0EA4-22EC-3B49-9816-DC8ADDCA8261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7145CF4A-B668-E445-BCAC-F167859AE400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="27660" windowHeight="17040" activeTab="1" xr2:uid="{C4E30C3F-6F0C-044D-B9E3-C4F5C71C6ACC}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="27660" windowHeight="17040" activeTab="1" xr2:uid="{C4E30C3F-6F0C-044D-B9E3-C4F5C71C6ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="annotations" localSheetId="0">Hoja1!$E$2:$I$57</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{D17664EB-A09F-7B41-B787-D84A344BC785}" name="annotations" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/francisco/Sites/Lapices/annotations.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/francisco/Sites/Lapices/annotations.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="19">
         <textField/>
         <textField/>
@@ -607,9 +608,6 @@
     <t>Lapices/imagenes/9.jpg</t>
   </si>
   <si>
-    <t>Lapices/imagenes/1.jpg 2211,1914,164,1743,0</t>
-  </si>
-  <si>
     <t>Lapices/imagenes/10.jpg 1290,2288,741,2206,0</t>
   </si>
   <si>
@@ -770,6 +768,9 @@
   </si>
   <si>
     <t>Lapices/imagenes/9.jpg 1614,2158,802,2443,0</t>
+  </si>
+  <si>
+    <t>Lapices/imagenes/1.jpg 1914,2211,1743,164,0</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C389E77A-09A3-8747-A3EE-018661B34CF4}">
   <dimension ref="C2:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D57" sqref="C3:D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,8 +1156,8 @@
         <v>1</v>
       </c>
       <c r="D3" t="str">
-        <f>E3&amp;" "&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;"0"</f>
-        <v>Lapices/imagenes/1.jpg 2211,1914,164,1743,0</v>
+        <f>E3&amp;" "&amp;G3&amp;","&amp;F3&amp;","&amp;I3&amp;","&amp;H3&amp;","&amp;"0"</f>
+        <v>Lapices/imagenes/1.jpg 1914,2211,1743,164,0</v>
       </c>
       <c r="E3" t="s">
         <v>124</v>
@@ -2476,16 +2477,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5577479-BCB7-F647-952D-D16D027315C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F2BD08-E2AD-E94E-B93C-BC996750EFE5}">
   <dimension ref="C3:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.2">
@@ -2493,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.2">
@@ -2501,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
@@ -2509,7 +2510,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
@@ -2517,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.2">
@@ -2525,7 +2526,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.2">
@@ -2533,7 +2534,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.2">
@@ -2541,7 +2542,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.2">
@@ -2549,7 +2550,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.2">
@@ -2557,7 +2558,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.2">
@@ -2565,7 +2566,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.2">
@@ -2573,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.2">
@@ -2581,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.2">
@@ -2589,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.2">
@@ -2597,7 +2598,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -2605,7 +2606,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
@@ -2613,7 +2614,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -2621,7 +2622,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
@@ -2629,7 +2630,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
@@ -2637,7 +2638,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
@@ -2645,7 +2646,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
@@ -2653,7 +2654,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
@@ -2661,7 +2662,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
@@ -2669,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
@@ -2677,7 +2678,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
@@ -2685,7 +2686,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
@@ -2693,7 +2694,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
@@ -2701,7 +2702,7 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
@@ -2709,7 +2710,7 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
@@ -2717,7 +2718,7 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
@@ -2725,7 +2726,7 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
@@ -2733,7 +2734,7 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
@@ -2741,7 +2742,7 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
@@ -2749,7 +2750,7 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
@@ -2757,7 +2758,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
@@ -2765,7 +2766,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
@@ -2773,7 +2774,7 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
@@ -2781,7 +2782,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
@@ -2789,7 +2790,7 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
@@ -2797,7 +2798,7 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
@@ -2805,7 +2806,7 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
@@ -2813,7 +2814,7 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
@@ -2821,7 +2822,7 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
@@ -2829,7 +2830,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -2837,7 +2838,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
@@ -2845,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
@@ -2853,7 +2854,7 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
@@ -2861,7 +2862,7 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
@@ -2869,7 +2870,7 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.2">
@@ -2877,15 +2878,15 @@
         <v>53</v>
       </c>
       <c r="D51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="1">
-        <v>54</v>
-      </c>
-      <c r="D52" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.2">
@@ -2893,7 +2894,7 @@
         <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.2">
@@ -2901,7 +2902,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.2">
@@ -2909,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.2">
@@ -2917,7 +2918,7 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.2">
@@ -2925,10 +2926,24 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5577479-BCB7-F647-952D-D16D027315C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>